--- a/src/Months to COD.xlsx
+++ b/src/Months to COD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/DeployWithRender/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC1048B2119E5C9C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448D482A-E083-40C7-A893-55B027014E2C}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC1048B2119E5C9C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2954045D-C792-4A3D-9229-F8570B59A25B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>

--- a/src/Months to COD.xlsx
+++ b/src/Months to COD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/DeployWithRender/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC1048B2119E5C9C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2954045D-C792-4A3D-9229-F8570B59A25B}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_F25DC773A252ABDACC1048B2119E5C9C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C505C583-0D42-4B0D-9635-7D08E15FA45D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,6 +128,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,17 +400,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -428,7 +432,7 @@
         <v>3.1900000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>300</v>
       </c>
@@ -439,7 +443,7 @@
         <v>3.4100000000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>500</v>
       </c>
@@ -450,7 +454,7 @@
         <v>3.5900000000000008E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>900</v>
       </c>
@@ -461,7 +465,7 @@
         <v>3.7300000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1200</v>
       </c>
@@ -472,7 +476,7 @@
         <v>3.8500000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1500</v>
       </c>
@@ -483,9 +487,9 @@
         <v>3.9500000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -497,4 +501,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{cb900d8d-e34c-495b-bcac-83a2298b7739}" enabled="1" method="Standard" siteId="{fda0a4a7-3813-444d-808d-54bb327d0367}" removed="0"/>
+</clbl:labelList>
 </file>